--- a/biology/Histoire de la zoologie et de la botanique/Tarleton_Hoffman_Bean/Tarleton_Hoffman_Bean.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tarleton_Hoffman_Bean/Tarleton_Hoffman_Bean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tarleton Hoffman Bean est un ichtyologiste américain, né le 8 octobre 1846 à Bainbridge et mort le 28 décembre 1916.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de George Bean et de Mary née Smith. Il obtient son titre d’ingénieur à l’école normale de Millersville en Pennsylvanie en 1866, puis son Medical Doctorat à l’université Columbian (aujourd’hui George Washington) en 1876, enfin un Master of Sciences à l’université d’Indiana en 1883.
 Bean se marie avec Laurette H. Van Hook le 1er janvier 1878. Il est conservateur du département des poissons du National Museum of Natural History de Washington de 1880 à 1895. Il dirige l’aquarium de New York de 1895 à 1898. Il participe aux travaux de la commission des pêches du gouvernement américain à partir de 1892 et devient, à partir de 1906, responsable des élevages de poissons pour l’État de New York.
